--- a/Source/target.xlsx
+++ b/Source/target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyulin/Bell program1/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyulin/TVA_filter/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD7EFE2-AEEF-7549-85FD-1A516DC507DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2102DACB-A247-6C44-8471-97EE9925480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8420" windowWidth="16360" windowHeight="9580" xr2:uid="{1B7D0290-52B8-534E-ABA2-AF55B96F8D7E}"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="16360" windowHeight="16040" xr2:uid="{1B7D0290-52B8-534E-ABA2-AF55B96F8D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>android</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Playback Hours</t>
-  </si>
-  <si>
-    <t>NoPlatform</t>
   </si>
 </sst>
 </file>
@@ -427,19 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30256B1C-F0F8-D04A-A409-77640F8997F2}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,22 +453,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -487,19 +481,16 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>0.51</v>
       </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Source/target.xlsx
+++ b/Source/target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyulin/TVA_filter/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyulin/Desktop/TVA_filter/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2102DACB-A247-6C44-8471-97EE9925480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E9F82-A79B-1945-8146-5FB56F7B6547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1960" windowWidth="16360" windowHeight="16040" xr2:uid="{1B7D0290-52B8-534E-ABA2-AF55B96F8D7E}"/>
+    <workbookView xWindow="14960" yWindow="5300" windowWidth="12200" windowHeight="6780" xr2:uid="{1B7D0290-52B8-534E-ABA2-AF55B96F8D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>android</t>
   </si>
@@ -42,9 +42,6 @@
     <t>androidTV</t>
   </si>
   <si>
-    <t>chiclet</t>
-  </si>
-  <si>
     <t>fireTV</t>
   </si>
   <si>
@@ -72,7 +69,13 @@
     <t>8.6.182</t>
   </si>
   <si>
-    <t>Playback Hours</t>
+    <t>chiclet-PI</t>
+  </si>
+  <si>
+    <t>chiclet-version</t>
+  </si>
+  <si>
+    <t>8.9.0.36063</t>
   </si>
 </sst>
 </file>
@@ -427,13 +430,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -444,54 +448,54 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>20210224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0.51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
